--- a/02_market_and_fundamental_data/01_NASDAQ_TotalView-ITCH_Order_Book/message_types.xlsx
+++ b/02_market_and_fundamental_data/01_NASDAQ_TotalView-ITCH_Order_Book/message_types.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\machine-learning-for-trading\02_market_and_fundamental_data\01_NASDAQ_TotalView-ITCH_Order_Book\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E9672-5CAB-4B39-8B4D-F597B5D9BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="messages" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="size" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="messages" sheetId="1" r:id="rId1"/>
+    <sheet name="size" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">messages!$A$1:$F$174</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">messages!$A$1:$F$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">messages!$A$1:$F$174</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="205">
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -48,7 +52,7 @@
     <t xml:space="preserve">Message Type </t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t>S</t>
   </si>
   <si>
     <t xml:space="preserve">System Event Message </t>
@@ -84,7 +88,7 @@
     <t xml:space="preserve">See System Event Codes below </t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
+    <t>R</t>
   </si>
   <si>
     <t xml:space="preserve">Stock Directory Message </t>
@@ -108,85 +112,85 @@
     <t xml:space="preserve">Indicates Listing market or listing market tier for the issue </t>
   </si>
   <si>
-    <t xml:space="preserve">Financial Status Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Nasdaq listed issues, this field indicates when a firm is not in compliance with Nasdaq continued listing requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Lot Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes the number of shares that represent a round lot for the issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Lots Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if Nasdaq system limits order entry for issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies the security class for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Sub-Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies the security sub-type for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes if an issue or quoting participant record is set-up in Nasdaq systems in a live/production, test, or demo state. Please note that firms should only show live issues and quoting participants on public quotation displays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Sale Threshold Indicator</t>
+    <t>Financial Status Indicator</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>For Nasdaq listed issues, this field indicates when a firm is not in compliance with Nasdaq continued listing requirements</t>
+  </si>
+  <si>
+    <t>Round Lot Size</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Denotes the number of shares that represent a round lot for the issue</t>
+  </si>
+  <si>
+    <t>Round Lots Only</t>
+  </si>
+  <si>
+    <t>Indicates if Nasdaq system limits order entry for issue</t>
+  </si>
+  <si>
+    <t>Issue Classification</t>
+  </si>
+  <si>
+    <t>Identifies the security class for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
+  </si>
+  <si>
+    <t>Issue Sub-Type</t>
+  </si>
+  <si>
+    <t>Identifies the security sub-type for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
+  </si>
+  <si>
+    <t>Authenticity</t>
+  </si>
+  <si>
+    <t>Denotes if an issue or quoting participant record is set-up in Nasdaq systems in a live/production, test, or demo state. Please note that firms should only show live issues and quoting participants on public quotation displays.</t>
+  </si>
+  <si>
+    <t>Short Sale Threshold Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates if a security is subject to mandatory close-out of short sales under SEC Rule 203(b)(3). </t>
   </si>
   <si>
-    <t xml:space="preserve">IPO Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if the Nasdaq security is set up for IPO Indicates if the Nasdaq security is set up for IPO release. This field is intended to help Nasdaq market participant firms comply with FINRA Rule 5131(b).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULD Reference Price Tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates which Limit Up / Limit Down price band calculation parameter is to be used for the instrument.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates whether the security is an exchange traded product (ETP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP Leverage Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracks the integral relationship of the ETP to the underlying index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates the directional relationship between the ETP and Underlying Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
+    <t>IPO Flag</t>
+  </si>
+  <si>
+    <t>Indicates if the Nasdaq security is set up for IPO Indicates if the Nasdaq security is set up for IPO release. This field is intended to help Nasdaq market participant firms comply with FINRA Rule 5131(b).</t>
+  </si>
+  <si>
+    <t>LULD Reference Price Tier</t>
+  </si>
+  <si>
+    <t>Indicates which Limit Up / Limit Down price band calculation parameter is to be used for the instrument.</t>
+  </si>
+  <si>
+    <t>ETP Flag</t>
+  </si>
+  <si>
+    <t>Indicates whether the security is an exchange traded product (ETP)</t>
+  </si>
+  <si>
+    <t>ETP Leverage Factor</t>
+  </si>
+  <si>
+    <t>Tracks the integral relationship of the ETP to the underlying index</t>
+  </si>
+  <si>
+    <t>Inverse Indicator</t>
+  </si>
+  <si>
+    <t>Indicates the directional relationship between the ETP and Underlying Index</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t xml:space="preserve">Stock Trading Action Message. </t>
@@ -201,7 +205,7 @@
     <t xml:space="preserve">Trading State </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates the current trading state for the stock. Allowable values: 
+    <t>Indicates the current trading state for the stock. Allowable values: 
 H = Halted across all U.S. equity markets / SROs 
 P = Paused across all U.S. equity markets / SROs (Nasdaq-listed securities only) 
 Q = Quotation only period for cross-SRO halt or pause
@@ -220,7 +224,7 @@
     <t xml:space="preserve">Trading Action reason. </t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Reg SHO Short Sale Price Test Restricted Indicator </t>
@@ -229,14 +233,14 @@
     <t xml:space="preserve">Reg SHO Action </t>
   </si>
   <si>
-    <t xml:space="preserve">Denotes the Reg SHO Short Sale Price Test Restriction status for the issue at the time of the message dissemination. 
+    <t>Denotes the Reg SHO Short Sale Price Test Restriction status for the issue at the time of the message dissemination. 
 Allowable values are:
 0 = No price test in place     
 1 = Reg SHO Short Sale Price Test Restriction in effect due to an intra-day price drop in security     
 2 = Reg SHO Short Sale Price Test Restriction remains in effect</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
+    <t>L</t>
   </si>
   <si>
     <t xml:space="preserve">Market Participant Position message </t>
@@ -251,7 +255,7 @@
     <t xml:space="preserve">Primary Market Maker </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates if the market participant firm qualifies as a Primary Market Maker in accordance with Nasdaq marketplace rules 
+    <t>Indicates if the market participant firm qualifies as a Primary Market Maker in accordance with Nasdaq marketplace rules 
 Y = primary market maker   
 N = non-primary market maker</t>
   </si>
@@ -259,7 +263,7 @@
     <t xml:space="preserve">Market Maker Mode </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates the quoting participant's registration status in relation to SEC Rules 101 and 104 of Regulation M
+    <t>Indicates the quoting participant's registration status in relation to SEC Rules 101 and 104 of Regulation M
 N = normal
 P = passive
 S = syndicate
@@ -278,7 +282,7 @@
 D = Deleted </t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
+    <t>V</t>
   </si>
   <si>
     <t xml:space="preserve">Market wide circuit breaker Decline Level Message. </t>
@@ -311,7 +315,7 @@
     <t xml:space="preserve">Denotes the MWCB Level 3 Value. </t>
   </si>
   <si>
-    <t xml:space="preserve">W</t>
+    <t>W</t>
   </si>
   <si>
     <t xml:space="preserve">Market-Wide Circuit Breaker Status message </t>
@@ -326,7 +330,7 @@
     <t xml:space="preserve">Denotes the MWCB Level that was breached. 1 = Level 1 2 = Level 2 3 = Level 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">K</t>
+    <t>K</t>
   </si>
   <si>
     <t xml:space="preserve">IPO Quoting Period Update Message </t>
@@ -347,7 +351,7 @@
     <t xml:space="preserve">IPO Quotation Release Qualifier </t>
   </si>
   <si>
-    <t xml:space="preserve">A = Anticipated Quotation Release Time: 
+    <t>A = Anticipated Quotation Release Time: 
 This value would be used when Nasdaq Market Operations initially enters the IPO instrument for release 
 C = IPO Release Canceled/Postponed: 
 This value would be sued when Nasdaq Market Operations cancels or postpones the release of the new IPO instrument</t>
@@ -363,13 +367,13 @@
 Prices are given in decimal format with 6 whole number places followed by 4 decimal digits. The whole number portion is padded on the left with spaces; the decimal portion is padded on the right with zeroes. The decimal point is implied by position, it does not appear inside the price field </t>
   </si>
   <si>
-    <t xml:space="preserve">J</t>
+    <t>J</t>
   </si>
   <si>
     <t xml:space="preserve">LULD Auction Collar </t>
   </si>
   <si>
-    <t xml:space="preserve">Nanoseconds past midnight</t>
+    <t>Nanoseconds past midnight</t>
   </si>
   <si>
     <t xml:space="preserve">Auction Collar Reference Price </t>
@@ -396,7 +400,7 @@
     <t xml:space="preserve">Indicates the number of the extensions to the Reopening Auction </t>
   </si>
   <si>
-    <t xml:space="preserve">h</t>
+    <t>h</t>
   </si>
   <si>
     <t xml:space="preserve">Operational Halt </t>
@@ -414,22 +418,22 @@
     <t xml:space="preserve">Market Code </t>
   </si>
   <si>
-    <t xml:space="preserve">Q: Nasdaq
+    <t>Q: Nasdaq
 B: BX
 X: PS</t>
   </si>
   <si>
-    <t xml:space="preserve">Operational Halt Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H: Operationally Halted on the identified Market
+    <t>Operational Halt Action</t>
+  </si>
+  <si>
+    <t>H: Operationally Halted on the identified Market
 T: Operational Halt has been lifted and Trading resumed</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Order No MPID Attribution Message</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Add Order No MPID Attribution Message</t>
   </si>
   <si>
     <t xml:space="preserve">Nanoseconds since midnight. </t>
@@ -444,7 +448,7 @@
     <t xml:space="preserve">Buy/Sell Indicator </t>
   </si>
   <si>
-    <t xml:space="preserve">The type of order being added. B = Buy Order. S = Sell Order.</t>
+    <t>The type of order being added. B = Buy Order. S = Sell Order.</t>
   </si>
   <si>
     <t xml:space="preserve">Shares </t>
@@ -459,10 +463,10 @@
     <t xml:space="preserve">The display price of the new order. Refer to Data Types for field processing notes. </t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Order MPID Attribution Message</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Add Order MPID Attribution Message</t>
   </si>
   <si>
     <t xml:space="preserve">The total number of shares associated with the order being added to the book </t>
@@ -474,7 +478,7 @@
     <t xml:space="preserve">Nasdaq Market participant identifier associated with the entered order </t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t>E</t>
   </si>
   <si>
     <t xml:space="preserve">Order Executed Message </t>
@@ -495,7 +499,7 @@
     <t xml:space="preserve">The Nasdaq generated day unique Match Number of this execution. The Match Number is also referenced in the Trade Break Message </t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">Order Executed With Price Message </t>
@@ -504,7 +508,7 @@
     <t xml:space="preserve">Printable </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates if the execution should be reflected on time and sales displays and volume calculations. 
+    <t>Indicates if the execution should be reflected on time and sales displays and volume calculations. 
 N = Non-Printable, 
 Y = Printable</t>
   </si>
@@ -515,7 +519,7 @@
     <t xml:space="preserve">The Price at which the order execution occurred. Refer to Data Types for field processing notes </t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve">Order Cancel Message </t>
@@ -530,13 +534,13 @@
     <t xml:space="preserve">The number of shares being removed from the display size of the order as a result of a cancellation </t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Order Delete Message </t>
   </si>
   <si>
-    <t xml:space="preserve">U</t>
+    <t>U</t>
   </si>
   <si>
     <t xml:space="preserve">Order Replace Message </t>
@@ -561,17 +565,17 @@
     <t xml:space="preserve">The new display price for the order </t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t>P</t>
   </si>
   <si>
     <t xml:space="preserve">Trade Message </t>
   </si>
   <si>
-    <t xml:space="preserve">The unique reference number assigned to the order on the book being executed. 
+    <t>The unique reference number assigned to the order on the book being executed. 
 Effective December 6, 2010, Nasdaq will populate the Order Reference Number field within the Trade (Non-Cross) message as zero. For the binary versions of the TotalView-ITCH data feeds, the field will be null-filled bytes (which encodes sequence of zero)</t>
   </si>
   <si>
-    <t xml:space="preserve">The type of non-display order on the book being matched 
+    <t>The type of non-display order on the book being matched 
 B = Buy Order 
 S = Sell Order 
 Effective 07/14/2014, this field will always be B regardless of the resting side</t>
@@ -590,7 +594,7 @@
 The Match Number is referenced in the Trade Break Message </t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
+    <t>Q</t>
   </si>
   <si>
     <t xml:space="preserve">Cross Trade Message </t>
@@ -605,7 +609,7 @@
     <t xml:space="preserve">The price at which the cross occurred. Refer to Data Types for field processing notes. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Nasdaq generated day-unique Match Number of this execution</t>
+    <t>The Nasdaq generated day-unique Match Number of this execution</t>
   </si>
   <si>
     <t xml:space="preserve">Cross Type </t>
@@ -617,16 +621,16 @@
 H = Cross for IPO and halted / paused securities.     </t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">Broken Trade Message. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Nasdaq Match Number of the execution that was broken. This refers to a Match Number from a previously transmitted Order Executed Message, Order Executed With Price Message, or Trade Message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
+    <t>The Nasdaq Match Number of the execution that was broken. This refers to a Match Number from a previously transmitted Order Executed Message, Order Executed With Price Message, or Trade Message.</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t xml:space="preserve">NOII Message </t>
@@ -663,7 +667,7 @@
     <t xml:space="preserve">Near Price </t>
   </si>
   <si>
-    <t xml:space="preserve">A hypothetical auction-clearing price for cross orders as well as continuous orders. Refer to Data Types for field</t>
+    <t>A hypothetical auction-clearing price for cross orders as well as continuous orders. Refer to Data Types for field</t>
   </si>
   <si>
     <t xml:space="preserve">Current Reference Price </t>
@@ -681,7 +685,7 @@
     <t xml:space="preserve">Price Variation Indicator </t>
   </si>
   <si>
-    <t xml:space="preserve">This field indicates the absolute value of the percentage  of deviation of the Near Indicative Clearing Price to the nearest Current Reference Price. L = Less than 1
+    <t>This field indicates the absolute value of the percentage  of deviation of the Near Indicative Clearing Price to the nearest Current Reference Price. L = Less than 1
 1 = 1 to 1.99% 
 2 = 2 to 2.99% 
 3 = 3 to 3.99% 
@@ -697,20 +701,17 @@
 &lt;Space&gt; = Cannot be calculated</t>
   </si>
   <si>
-    <t xml:space="preserve">message_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
+    <t>message_type</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -719,22 +720,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -742,7 +728,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -759,7 +745,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -767,81 +753,367 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.56744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="98.8186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="3.5625"/>
+    <col min="2" max="2" width="27.4375"/>
+    <col min="3" max="5" width="10.8125"/>
+    <col min="6" max="6" width="98.8125"/>
+    <col min="7" max="1025" width="10.8125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,17 +1133,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -881,17 +1153,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -901,17 +1173,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -921,17 +1193,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -941,17 +1213,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -961,17 +1233,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -981,17 +1253,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1001,17 +1273,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1021,17 +1293,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1041,17 +1313,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1061,17 +1333,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1081,17 +1353,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1101,17 +1373,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1121,17 +1393,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1141,17 +1413,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1161,17 +1433,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>27</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1181,17 +1453,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1201,17 +1473,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1221,17 +1493,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1241,17 +1513,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1261,17 +1533,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1281,17 +1553,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1301,17 +1573,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>38</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1321,17 +1593,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1341,17 +1613,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1361,17 +1633,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1381,17 +1653,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1401,17 +1673,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1421,17 +1693,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:6" ht="58.15" x14ac:dyDescent="0.5">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1441,17 +1713,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>20</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1461,17 +1733,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1481,17 +1753,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1501,17 +1773,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1521,17 +1793,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1541,17 +1813,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>5</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1561,17 +1833,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1581,17 +1853,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:6" ht="58.15" x14ac:dyDescent="0.5">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1601,17 +1873,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1621,17 +1893,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="n">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1641,17 +1913,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1661,17 +1933,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1681,17 +1953,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1701,17 +1973,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1721,17 +1993,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:6" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>23</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1741,17 +2013,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:6" ht="69.75" x14ac:dyDescent="0.5">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>24</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1761,17 +2033,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:6" ht="69.75" x14ac:dyDescent="0.5">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>25</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -1781,17 +2053,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1801,17 +2073,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="n">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -1821,17 +2093,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -1841,17 +2113,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="2">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1861,17 +2133,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2">
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -1881,17 +2153,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>19</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="2">
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -1901,17 +2173,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>27</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="2">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -1921,17 +2193,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -1941,17 +2213,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2" t="n">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -1961,17 +2233,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>3</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -1981,17 +2253,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>5</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="2">
         <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2001,17 +2273,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>11</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -2021,17 +2293,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -2041,17 +2313,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="n">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2061,17 +2333,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -2081,17 +2353,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="2">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -2101,17 +2373,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="2">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -2121,17 +2393,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>19</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2">
         <v>4</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2141,17 +2413,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>23</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2161,17 +2433,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>24</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="2">
         <v>4</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -2181,17 +2453,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="2">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -2201,17 +2473,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="n">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2221,17 +2493,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="2">
         <v>3</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="2">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2241,17 +2513,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="2">
         <v>5</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="2">
         <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -2261,17 +2533,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="2">
         <v>11</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="2">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -2281,17 +2553,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="2">
         <v>19</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="2">
         <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -2301,17 +2573,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="2">
         <v>23</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="2">
         <v>4</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -2321,17 +2593,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="2">
         <v>27</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="2">
         <v>4</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2341,17 +2613,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="2">
         <v>31</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="2">
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -2361,17 +2633,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>0</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -2381,17 +2653,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="n">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -2401,17 +2673,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -2421,17 +2693,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="2">
         <v>5</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="2">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -2441,17 +2713,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="2">
         <v>11</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="2">
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2461,17 +2733,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:6" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="2">
         <v>19</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="2">
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2481,17 +2753,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>20</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="2">
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -2501,17 +2773,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -2521,17 +2793,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2" t="n">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
         <v>2</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -2541,17 +2813,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="2">
         <v>3</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2561,17 +2833,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="2">
         <v>5</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="2">
         <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -2581,17 +2853,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="2">
         <v>11</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="2">
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -2601,17 +2873,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="2">
         <v>19</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="2">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2621,17 +2893,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>20</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="2">
         <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -2641,17 +2913,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="2">
         <v>24</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="2">
         <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2661,17 +2933,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="2">
         <v>32</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="2">
         <v>4</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -2681,17 +2953,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="2">
         <v>0</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="2">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -2701,17 +2973,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="n">
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
         <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -2721,17 +2993,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="2">
         <v>3</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="2">
         <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -2741,17 +3013,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="2">
         <v>5</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="2">
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2761,17 +3033,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="2">
         <v>11</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="2">
         <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -2781,17 +3053,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="2">
         <v>19</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="2">
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -2801,17 +3073,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="2">
         <v>20</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="2">
         <v>4</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -2821,17 +3093,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="2">
         <v>24</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="2">
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -2841,17 +3113,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="2">
         <v>32</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="2">
         <v>4</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2861,17 +3133,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="2">
         <v>36</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="2">
         <v>4</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -2881,17 +3153,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="2">
         <v>0</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="2">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -2901,17 +3173,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2" t="n">
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -2921,17 +3193,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="2">
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -2941,17 +3213,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="2">
         <v>5</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="2">
         <v>6</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -2961,17 +3233,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="2">
         <v>11</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="2">
         <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2981,17 +3253,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="2">
         <v>19</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="2">
         <v>4</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -3001,17 +3273,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="2">
         <v>23</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="2">
         <v>8</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -3021,17 +3293,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="2">
         <v>0</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="2">
         <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -3041,17 +3313,17 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" s="2" t="n">
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
         <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -3061,17 +3333,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="2">
         <v>3</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="2">
         <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3081,17 +3353,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="2">
         <v>5</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="2">
         <v>6</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -3101,17 +3373,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="2">
         <v>11</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="2">
         <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -3121,17 +3393,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="2">
         <v>19</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="2">
         <v>4</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -3141,17 +3413,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="2">
         <v>23</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="2">
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -3161,17 +3433,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:6" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="2">
         <v>31</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="2">
         <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3181,17 +3453,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="2">
         <v>32</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="2">
         <v>4</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -3201,17 +3473,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="2">
         <v>0</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="2">
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -3221,17 +3493,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2" t="n">
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -3241,17 +3513,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="2">
         <v>3</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="2">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -3261,17 +3533,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="2">
         <v>5</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="2">
         <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3281,17 +3553,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="2">
         <v>11</v>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="2">
         <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -3301,17 +3573,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="2">
         <v>19</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="2">
         <v>4</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -3321,17 +3593,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="2">
         <v>0</v>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="2">
         <v>1</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -3341,17 +3613,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2" t="n">
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -3361,17 +3633,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="2">
         <v>3</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="2">
         <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3381,17 +3653,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="2">
         <v>5</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="2">
         <v>6</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -3401,17 +3673,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="2">
         <v>11</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="2">
         <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -3421,17 +3693,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="2">
         <v>0</v>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="2">
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -3441,17 +3713,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" s="2" t="n">
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -3461,17 +3733,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="2" t="n">
+      <c r="C132" s="2">
         <v>3</v>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="2">
         <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -3481,17 +3753,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="2">
         <v>5</v>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="2">
         <v>6</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3501,17 +3773,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="2">
         <v>11</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="2">
         <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -3521,17 +3793,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="2">
         <v>19</v>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="2">
         <v>8</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -3541,17 +3813,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="2">
         <v>27</v>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="2">
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -3561,17 +3833,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="2">
         <v>31</v>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="2">
         <v>4</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -3581,17 +3853,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="2">
         <v>0</v>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="2">
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -3601,17 +3873,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2" t="n">
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
         <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -3621,17 +3893,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="2">
         <v>3</v>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="2">
         <v>2</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -3641,17 +3913,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="2">
         <v>5</v>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="2">
         <v>6</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -3661,17 +3933,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:6" ht="34.9" x14ac:dyDescent="0.5">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="2">
         <v>11</v>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="2">
         <v>8</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -3681,17 +3953,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:6" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="2">
         <v>19</v>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="2">
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3701,17 +3973,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="2">
         <v>20</v>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="2">
         <v>4</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -3721,17 +3993,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="2">
         <v>24</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="2">
         <v>8</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -3741,17 +4013,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C146" s="2" t="n">
+      <c r="C146" s="2">
         <v>32</v>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="2">
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -3761,17 +4033,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="2">
         <v>36</v>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="2">
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -3781,17 +4053,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="2" t="n">
+      <c r="C148" s="2">
         <v>0</v>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" s="2">
         <v>1</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3801,17 +4073,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" s="2" t="n">
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
         <v>2</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -3821,17 +4093,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="2" t="n">
+      <c r="C150" s="2">
         <v>3</v>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="2">
         <v>2</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -3841,17 +4113,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C151" s="2" t="n">
+      <c r="C151" s="2">
         <v>5</v>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="2">
         <v>6</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -3861,17 +4133,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="C152" s="2">
         <v>11</v>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="2">
         <v>8</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -3881,17 +4153,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="C153" s="2">
         <v>19</v>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="2">
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3901,17 +4173,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="2">
         <v>27</v>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="2">
         <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -3921,17 +4193,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="2">
         <v>31</v>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="2">
         <v>8</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -3941,17 +4213,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C156" s="2" t="n">
+      <c r="C156" s="2">
         <v>39</v>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="2">
         <v>1</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -3961,17 +4233,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="2">
         <v>0</v>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" s="2">
         <v>1</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -3981,17 +4253,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" s="2" t="n">
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2">
         <v>2</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -4001,17 +4273,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="2">
         <v>2</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -4021,17 +4293,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C160" s="2">
         <v>5</v>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="2">
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -4041,17 +4313,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C161" s="2" t="n">
+      <c r="C161" s="2">
         <v>11</v>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="2">
         <v>8</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -4061,17 +4333,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="2" t="n">
+      <c r="C162" s="2">
         <v>0</v>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" s="2">
         <v>1</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -4081,17 +4353,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" s="2" t="n">
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2">
         <v>2</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -4101,17 +4373,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="2" t="n">
+      <c r="C164" s="2">
         <v>3</v>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="2">
         <v>2</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -4121,17 +4393,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="2" t="n">
+      <c r="C165" s="2">
         <v>5</v>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="2">
         <v>6</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -4141,17 +4413,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C166" s="2" t="n">
+      <c r="C166" s="2">
         <v>11</v>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="2">
         <v>8</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -4161,17 +4433,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="C167" s="2">
         <v>19</v>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="2">
         <v>8</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -4181,17 +4453,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:6" ht="58.15" x14ac:dyDescent="0.5">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C168" s="2" t="n">
+      <c r="C168" s="2">
         <v>27</v>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="2">
         <v>1</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -4201,17 +4473,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C169" s="2" t="n">
+      <c r="C169" s="2">
         <v>28</v>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="2">
         <v>8</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -4221,17 +4493,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C170" s="2" t="n">
+      <c r="C170" s="2">
         <v>36</v>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="2">
         <v>4</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -4241,17 +4513,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C171" s="2" t="n">
+      <c r="C171" s="2">
         <v>40</v>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="2">
         <v>4</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -4261,17 +4533,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C172" s="2" t="n">
+      <c r="C172" s="2">
         <v>44</v>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="2">
         <v>4</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -4281,17 +4553,17 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:6" ht="46.5" x14ac:dyDescent="0.5">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C173" s="2" t="n">
+      <c r="C173" s="2">
         <v>48</v>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -4301,17 +4573,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:6" ht="174.4" x14ac:dyDescent="0.5">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C174" s="2" t="n">
+      <c r="C174" s="2">
         <v>49</v>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="2">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -4322,233 +4594,218 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F174"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="12.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="10.8125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>